--- a/0601 크롤링 과제/genie_chart.xlsx
+++ b/0601 크롤링 과제/genie_chart.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>지수 (JISOO)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>세븐틴 (SEVENTEEN)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>윤하 (YOUNHA)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>지수 (JISOO)</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>FIFTY FIFTY</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,7 +771,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>DK (디셈버)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -791,17 +791,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Teddy Bear</t>
+          <t>I Don't Think That I Like Her</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>세븐틴 (SEVENTEEN)</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Teddy Bear</t>
+          <t>CHARLIE</t>
         </is>
       </c>
     </row>
@@ -816,17 +816,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>우리들의 블루스</t>
+          <t>Teddy Bear</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>윤하 (YOUNHA)</t>
+          <t>STAYC (스테이씨)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>IM HERO</t>
+          <t>Teddy Bear</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>I Don't Think That I Like Her</t>
+          <t>우리들의 블루스</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CHARLIE</t>
+          <t>IM HERO</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FIFTY FIFTY</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -891,17 +891,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>OMG</t>
+          <t>파이팅 해야지 (Feat. 이영지)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DK (디셈버)</t>
+          <t>부석순 (SEVENTEEN)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>NewJeans 'OMG'</t>
+          <t>부석순 1st Single Album 'SECOND WIND'</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>STAYC (스테이씨)</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Charlie Puth</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -991,17 +991,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Dangerously</t>
+          <t>OMG</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Nine Track Mind (Deluxe Edition)</t>
+          <t>NewJeans 'OMG'</t>
         </is>
       </c>
     </row>
@@ -1016,17 +1016,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>LOVE DIVE</t>
+          <t>Dangerously</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>LOVE DIVE</t>
+          <t>Nine Track Mind (Deluxe Edition)</t>
         </is>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>파이팅 해야지 (Feat. 이영지)</t>
+          <t>무지개</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>부석순 1st Single Album 'SECOND WIND'</t>
+          <t>IM HERO</t>
         </is>
       </c>
     </row>
@@ -1091,17 +1091,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>무지개</t>
+          <t>LOVE DIVE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>IM HERO</t>
+          <t>LOVE DIVE</t>
         </is>
       </c>
     </row>
@@ -1116,17 +1116,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Attention</t>
+          <t>CHRISTIAN</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Charlie Puth</t>
+          <t>Zior Park</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NewJeans 1st EP 'New Jeans'</t>
+          <t>WHERE DOES SASQUATCH LIVE? PART 1</t>
         </is>
       </c>
     </row>
@@ -1141,17 +1141,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CHRISTIAN</t>
+          <t>Attention</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WHERE DOES SASQUATCH LIVE? PART 1</t>
+          <t>NewJeans 1st EP 'New Jeans'</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>박재정</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>부석순 (SEVENTEEN)</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1216,17 +1216,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ANTIFRAGILE</t>
+          <t>이브, 프시케 그리고 푸른 수염의 아내</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>LE SSERAFIM (르세라핌)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ANTIFRAGILE</t>
+          <t>UNFORGIVEN</t>
         </is>
       </c>
     </row>
@@ -1241,17 +1241,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>물론</t>
+          <t>A bientot</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>물론</t>
+          <t>IM HERO</t>
         </is>
       </c>
     </row>
@@ -1266,17 +1266,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>그라데이션</t>
+          <t>사랑해 진짜</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Zior Park</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.3</t>
+          <t>IM HERO</t>
         </is>
       </c>
     </row>
@@ -1291,17 +1291,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>건물 사이에 피어난 장미</t>
+          <t>ANTIFRAGILE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>박재정</t>
+          <t>LE SSERAFIM (르세라핌)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>H1-KEY 1st Mini Album (Rose Blossom)</t>
+          <t>ANTIFRAGILE</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>A bientot</t>
+          <t>손이 참 곱던 그대</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1341,12 +1341,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>손이 참 곱던 그대</t>
+          <t>연애편지</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1366,17 +1366,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>사랑해 진짜</t>
+          <t>건물 사이에 피어난 장미</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>허각</t>
+          <t>H1-KEY (하이키)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>IM HERO</t>
+          <t>H1-KEY 1st Mini Album (Rose Blossom)</t>
         </is>
       </c>
     </row>
@@ -1391,12 +1391,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>연애편지</t>
+          <t>인생찬가</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>10CM</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1416,17 +1416,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>이브, 프시케 그리고 푸른 수염의 아내</t>
+          <t>보금자리</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>H1-KEY (하이키)</t>
+          <t>임영웅</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>UNFORGIVEN</t>
+          <t>IM HERO</t>
         </is>
       </c>
     </row>
@@ -1441,17 +1441,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>인생찬가</t>
+          <t>물론</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>허각</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>IM HERO</t>
+          <t>물론</t>
         </is>
       </c>
     </row>
@@ -1466,17 +1466,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>사랑인가 봐</t>
+          <t>Heaven (2023)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>임재현</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>사랑인가 봐 (사내맞선 OST 스페셜 트랙)</t>
+          <t>시작은 첫키스 OST Part.1</t>
         </is>
       </c>
     </row>
@@ -1491,17 +1491,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>보금자리</t>
+          <t>사랑인가 봐</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>멜로망스 (MeloMance)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>IM HERO</t>
+          <t>사랑인가 봐 (사내맞선 OST 스페셜 트랙)</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>imase</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1541,17 +1541,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TOMBOY</t>
+          <t>취중고백</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>김민석 (멜로망스)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>I NEVER DIE</t>
+          <t>취중고백</t>
         </is>
       </c>
     </row>
@@ -1566,17 +1566,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>사랑하기 싫어</t>
+          <t>That's Hilarious</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>사랑하기 싫어</t>
+          <t>CHARLIE</t>
         </is>
       </c>
     </row>
@@ -1591,17 +1591,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>That's Hilarious</t>
+          <t>해요 (2022)</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>멜로망스 (MeloMance)</t>
+          <t>#안녕</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>CHARLIE</t>
+          <t>해요 (2022)</t>
         </is>
       </c>
     </row>
@@ -1616,17 +1616,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Nxde</t>
+          <t>TOMBOY</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>임영웅</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>I love</t>
+          <t>I NEVER DIE</t>
         </is>
       </c>
     </row>
@@ -1641,17 +1641,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>빛이 나는 너에게</t>
+          <t>그때 그 순간 그대로 (그그그)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>imase</t>
+          <t>WSG워너비 (가야G)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>빛이 나는 너에게</t>
+          <t>WSG워너비 1집</t>
         </is>
       </c>
     </row>
@@ -1666,17 +1666,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>취중고백</t>
+          <t>빛이 나는 너에게</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>던 (DAWN)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>취중고백</t>
+          <t>빛이 나는 너에게</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>지아 (Zia)</t>
+          <t>Alan Walker</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Shut Down</t>
+          <t>Nxde</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>BORN PINK</t>
+          <t>I love</t>
         </is>
       </c>
     </row>
@@ -1741,17 +1741,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>다정히 내 이름을 부르면</t>
+          <t>KNOCK</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>이채연</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>다정히 내 이름을 부르면</t>
+          <t>Over The Moon</t>
         </is>
       </c>
     </row>
@@ -1766,17 +1766,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ELEVEN</t>
+          <t>그라데이션</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>10CM</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ELEVEN</t>
+          <t>5.3</t>
         </is>
       </c>
     </row>
@@ -1791,17 +1791,17 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Allergy</t>
+          <t>다정히 내 이름을 부르면</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>경서예지 &amp; 전건호</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>I feel</t>
+          <t>다정히 내 이름을 부르면</t>
         </is>
       </c>
     </row>
@@ -1816,17 +1816,17 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Heaven (2023)</t>
+          <t>Stay</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>The Kid LAROI &amp; Justin Bieber</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>시작은 첫키스 OST Part.1</t>
+          <t>Stay</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>KNOCK</t>
+          <t>Shut Down</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1851,7 +1851,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Over The Moon</t>
+          <t>BORN PINK</t>
         </is>
       </c>
     </row>
@@ -1866,17 +1866,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>그때 그 순간 그대로 (그그그)</t>
+          <t>Pink Venom</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>경서예지 &amp; 전건호</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>WSG워너비 1집</t>
+          <t>BORN PINK</t>
         </is>
       </c>
     </row>
@@ -1891,17 +1891,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Dynamite</t>
+          <t>Monologue</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>테이 (Tei)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Dynamite (DayTime Ver.)</t>
+          <t>Monologue</t>
         </is>
       </c>
     </row>
@@ -1916,17 +1916,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Monologue</t>
+          <t>FEARLESS</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>LE SSERAFIM (르세라핌)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Monologue</t>
+          <t>FEARLESS</t>
         </is>
       </c>
     </row>
@@ -1941,17 +1941,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>새삥 (Prod. by ZICO) (Feat. 호미들)</t>
+          <t>너의 모든 순간</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>임재현</t>
+          <t>성시경</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>스트릿 맨 파이터(SMF) Original Vol.3 (계급미션)</t>
+          <t>별에서 온 그대 OST Part.7 (SBS 수목드라마)</t>
         </is>
       </c>
     </row>
@@ -1966,17 +1966,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Stay</t>
+          <t>사랑..그게 뭔데</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>이채연</t>
+          <t>지아 (Zia)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Stay</t>
+          <t>사랑..그게 뭔데</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>나의 X에게</t>
+          <t>나의 바람 (Wind And Wish)</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>WSG워너비 (가야G)</t>
+          <t>비투비</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>나의 X에게</t>
+          <t>WIND AND WISH</t>
         </is>
       </c>
     </row>
@@ -2016,17 +2016,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>너의 모든 순간</t>
+          <t>When I Get Old</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>Christopher &amp; 청하</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>별에서 온 그대 OST Part.7 (SBS 수목드라마)</t>
+          <t>When I Get Old</t>
         </is>
       </c>
     </row>
@@ -2041,17 +2041,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>사랑..그게 뭔데</t>
+          <t>찬란한 하루</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>테이 (Tei)</t>
+          <t>멜로망스 (MeloMance)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>사랑..그게 뭔데</t>
+          <t>찬란한 하루</t>
         </is>
       </c>
     </row>
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>When I Get Old</t>
+          <t>새삥 (Prod. by ZICO) (Feat. 호미들)</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>When I Get Old</t>
+          <t>스트릿 맨 파이터(SMF) Original Vol.3 (계급미션)</t>
         </is>
       </c>
     </row>
@@ -2091,17 +2091,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>나의 바람 (Wind And Wish)</t>
+          <t>사랑하기 싫어</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>The Kid LAROI &amp; Justin Bieber</t>
+          <t>지아 (Zia)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>WIND AND WISH</t>
+          <t>사랑하기 싫어</t>
         </is>
       </c>
     </row>
@@ -2116,17 +2116,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>내가 아니라도</t>
+          <t>Dynamite</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>경서</t>
+          <t>방탄소년단</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>내가 아니라도</t>
+          <t>Dynamite (DayTime Ver.)</t>
         </is>
       </c>
     </row>
@@ -2141,17 +2141,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>해요 (2022)</t>
+          <t>나의 X에게</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>성시경</t>
+          <t>경서</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>해요 (2022)</t>
+          <t>나의 X에게</t>
         </is>
       </c>
     </row>
@@ -2166,17 +2166,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>찬란한 하루</t>
+          <t>Allergy</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>지아 (Zia)</t>
+          <t>(여자)아이들</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>찬란한 하루</t>
+          <t>I feel</t>
         </is>
       </c>
     </row>
@@ -2191,17 +2191,17 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Loving You Girl (Feat. Hkeem)</t>
+          <t>VIBE (Feat. Jimin of BTS)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Christopher &amp; 청하</t>
+          <t>태양</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Love &amp; Loneliness</t>
+          <t>VIBE</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2216,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>오르트구름</t>
+          <t>ELEVEN</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>비투비</t>
+          <t>IVE (아이브)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>YOUNHA 6th Album 'END THEORY'</t>
+          <t>ELEVEN</t>
         </is>
       </c>
     </row>
@@ -2241,17 +2241,17 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Dreamers (Music from the FIFA World Cup Qatar 2022 Official Soundtrack) (Feat. FIFA Sound)</t>
+          <t>오르트구름</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>주호</t>
+          <t>윤하 (YOUNHA)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Dreamers (Music from the FIFA World Cup Qatar 2022 Official Soundtrack)</t>
+          <t>YOUNHA 6th Album 'END THEORY'</t>
         </is>
       </c>
     </row>
@@ -2266,17 +2266,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Pink Venom</t>
+          <t>Loving You Girl (Feat. Hkeem)</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>#안녕</t>
+          <t>Peder Elias</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>BORN PINK</t>
+          <t>Love &amp; Loneliness</t>
         </is>
       </c>
     </row>
@@ -2291,17 +2291,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>주저하는 연인들을 위해</t>
+          <t>내가 아니라도</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>멜로망스 (MeloMance)</t>
+          <t>주호</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>전설</t>
+          <t>내가 아니라도</t>
         </is>
       </c>
     </row>
@@ -2316,17 +2316,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>FEARLESS</t>
+          <t>Dreamers (Music from the FIFA World Cup Qatar 2022 Official Soundtrack) (Feat. FIFA Sound)</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Peder Elias</t>
+          <t>정국 &amp; 방탄소년단</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>FEARLESS</t>
+          <t>Dreamers (Music from the FIFA World Cup Qatar 2022 Official Soundtrack)</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>윤하 (YOUNHA)</t>
+          <t>Anne-Marie</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2366,17 +2366,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Every Second</t>
+          <t>Thirsty</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>정국 &amp; 방탄소년단</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Every Second</t>
+          <t>MY WORLD - The 3rd Mini Album</t>
         </is>
       </c>
     </row>
@@ -2391,17 +2391,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>에잇 (Prod. &amp; Feat. SUGA of BTS)</t>
+          <t>보고싶었어</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>BLACKPINK</t>
+          <t>WSG워너비 (4FIRE)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>에잇</t>
+          <t>WSG워너비 1집</t>
         </is>
       </c>
     </row>
@@ -2416,7 +2416,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Thirsty</t>
+          <t>주저하는 연인들을 위해</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MY WORLD - The 3rd Mini Album</t>
+          <t>전설</t>
         </is>
       </c>
     </row>
@@ -2441,17 +2441,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>정이라고 하자 (Feat. 10CM)</t>
+          <t>Butter</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>방탄소년단</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>정이라고 하자</t>
+          <t>Butter</t>
         </is>
       </c>
     </row>
@@ -2466,17 +2466,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Cookie</t>
+          <t>정이라고 하자 (Feat. 10CM)</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Anne-Marie</t>
+          <t>BIG Naughty (서동현)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>NewJeans 1st EP 'New Jeans'</t>
+          <t>정이라고 하자</t>
         </is>
       </c>
     </row>
@@ -2491,17 +2491,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>헤픈 우연</t>
+          <t>봄날</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Mina Okabe</t>
+          <t>방탄소년단</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>HAPPEN</t>
+          <t>YOU NEVER WALK ALONE</t>
         </is>
       </c>
     </row>
@@ -2516,17 +2516,17 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Butter</t>
+          <t>잠깐 시간 될까</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>이무진</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Butter</t>
+          <t>잠깐 시간 될까</t>
         </is>
       </c>
     </row>
@@ -2541,17 +2541,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>신호등</t>
+          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>폴킴</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>신호등</t>
+          <t>'키스 먼저 할까요?' OST Part. 3 (SBS 월화드라마)</t>
         </is>
       </c>
     </row>
@@ -2566,17 +2566,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>그중에 그대를 만나</t>
+          <t>신호등</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>BIG Naughty (서동현)</t>
+          <t>이무진</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>삼남매가 용감하게 OST Part.1</t>
+          <t>신호등</t>
         </is>
       </c>
     </row>
@@ -2591,17 +2591,17 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>첫 키스에 내 심장은 120BPM</t>
+          <t>라일락</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NewJeans</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ONGOING</t>
+          <t>IU 5th Album 'LILAC'</t>
         </is>
       </c>
     </row>
@@ -2616,17 +2616,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>VIBE (Feat. Jimin of BTS)</t>
+          <t>첫 키스에 내 심장은 120BPM</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>헤이즈 (Heize)</t>
+          <t>경서</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>VIBE</t>
+          <t>ONGOING</t>
         </is>
       </c>
     </row>
@@ -2641,17 +2641,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>봄날</t>
+          <t>Cookie</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>NewJeans</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>YOU NEVER WALK ALONE</t>
+          <t>NewJeans 1st EP 'New Jeans'</t>
         </is>
       </c>
     </row>
@@ -2666,17 +2666,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>보고싶었어</t>
+          <t>희재</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>성시경</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>WSG워너비 1집</t>
+          <t>국화꽃 향기 OST</t>
         </is>
       </c>
     </row>
@@ -2691,17 +2691,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>잠깐 시간 될까</t>
+          <t>Off My Face</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>Justin Bieber</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>잠깐 시간 될까</t>
+          <t>Justice</t>
         </is>
       </c>
     </row>
@@ -2716,17 +2716,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Celebrity</t>
+          <t>Unholy</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>경서</t>
+          <t>Sam Smith &amp; Kim Petras</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>IU 5th Album 'LILAC'</t>
+          <t>Unholy</t>
         </is>
       </c>
     </row>
@@ -2741,17 +2741,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>At My Worst</t>
+          <t>그중에 그대를 만나</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>태양</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>The Prelude</t>
+          <t>삼남매가 용감하게 OST Part.1</t>
         </is>
       </c>
     </row>
@@ -2766,17 +2766,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Off My Face</t>
+          <t>Every Second</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>Mina Okabe</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Justice</t>
+          <t>Every Second</t>
         </is>
       </c>
     </row>
@@ -2791,17 +2791,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>밤하늘의 별을 (2020)</t>
+          <t>Say I Love You</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>WSG워너비 (4FIRE)</t>
+          <t>우디 (Woody)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>밤하늘의 별을 (2020)</t>
+          <t>Say I Love You (Re : WIND 4MEN Vol.04)</t>
         </is>
       </c>
     </row>
@@ -2816,17 +2816,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+          <t>NOT SORRY (Feat. pH-1) (Prod. by Slom)</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>이무진</t>
+          <t>이영지</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>'키스 먼저 할까요?' OST Part. 3 (SBS 월화드라마)</t>
+          <t>쇼미더머니 11 Episode 3</t>
         </is>
       </c>
     </row>
@@ -2841,17 +2841,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Say I Love You</t>
+          <t>밤하늘의 별을 (2020)</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>경서</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Say I Love You (Re : WIND 4MEN Vol.04)</t>
+          <t>밤하늘의 별을 (2020)</t>
         </is>
       </c>
     </row>
@@ -2866,17 +2866,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Love Me Like This</t>
+          <t>밤이 무서워요 (Lonely Night)</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Pink Sweat$</t>
+          <t>주주 시크릿</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>expérgo</t>
+          <t>밤이 무서워요 (Lonely Night)</t>
         </is>
       </c>
     </row>
@@ -2891,17 +2891,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>희재</t>
+          <t>Ai Wo Tsutaetaidatoka</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Justin Bieber</t>
+          <t>Aimyon</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>국화꽃 향기 OST</t>
+          <t>Ai Wo Tsutaetaidatoka</t>
         </is>
       </c>
     </row>
@@ -2916,17 +2916,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>나의 목소리로</t>
+          <t>봄여름가을겨울 (Still Life)</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>경서</t>
+          <t>BIGBANG (빅뱅)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>나의 목소리로</t>
+          <t>봄여름가을겨울 (Still Life)</t>
         </is>
       </c>
     </row>
@@ -2941,17 +2941,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>봄여름가을겨울 (Still Life)</t>
+          <t>Love Me Like This</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t>NMIXX</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>봄여름가을겨울 (Still Life)</t>
+          <t>expérgo</t>
         </is>
       </c>
     </row>
@@ -2966,17 +2966,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Unholy</t>
+          <t>Weekend</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>태연 (TAEYEON)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Unholy</t>
+          <t>Weekend</t>
         </is>
       </c>
     </row>
@@ -2991,17 +2991,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>NOT SORRY (Feat. pH-1) (Prod. by Slom)</t>
+          <t>첫눈처럼 너에게 가겠다</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>에일리 (Ailee)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>쇼미더머니 11 Episode 3</t>
+          <t>도깨비 OST Part 9 (tvN 금토드라마)</t>
         </is>
       </c>
     </row>
@@ -3016,17 +3016,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ai Wo Tsutaetaidatoka</t>
+          <t>딱 10CM만</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>10CM &amp; BIG Naughty (서동현)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Ai Wo Tsutaetaidatoka</t>
+          <t>딱 10CM만</t>
         </is>
       </c>
     </row>
@@ -3041,17 +3041,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>상록수</t>
+          <t>Next Level</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>상록수</t>
+          <t>Next Level</t>
         </is>
       </c>
     </row>
@@ -3066,17 +3066,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>That's Not How This Works (Feat. Dan ＋ Shay)</t>
+          <t>한사람만 (2023) (여름날 우리 X 이홍기 (FT아일랜드))</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>이홍기 (FT아일랜드)</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>That's Not How This Works</t>
+          <t>한사람만 (2023) (여름날 우리 X 이홍기 (FT아일랜드))</t>
         </is>
       </c>
     </row>
@@ -3091,17 +3091,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>밤이 무서워요 (Lonely Night)</t>
+          <t>상록수</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Sam Smith &amp; Kim Petras</t>
+          <t>이우</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>밤이 무서워요 (Lonely Night)</t>
+          <t>상록수</t>
         </is>
       </c>
     </row>
@@ -3116,17 +3116,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>INVU</t>
+          <t>에잇 (Prod. &amp; Feat. SUGA of BTS)</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>이영지</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>INVU - The 3rd Album</t>
+          <t>에잇</t>
         </is>
       </c>
     </row>
@@ -3141,17 +3141,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>한사람만 (2023) (여름날 우리 X 이홍기 (FT아일랜드))</t>
+          <t>Candy</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Aimyon</t>
+          <t>NCT DREAM</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>한사람만 (2023) (여름날 우리 X 이홍기 (FT아일랜드))</t>
+          <t>Candy - Winter Special Mini Album</t>
         </is>
       </c>
     </row>
@@ -3166,17 +3166,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Candy</t>
+          <t>Me You (Feat. 백예린 of 15&amp;)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>이우</t>
+          <t>San E (산이)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Candy - Winter Special Mini Album</t>
+          <t>양치기 소년</t>
         </is>
       </c>
     </row>
@@ -3191,17 +3191,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Bad Habits</t>
+          <t>빙글빙글 (Prod. by R.Tee)</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Charlie Puth</t>
+          <t>헤이즈 (Heize)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>=</t>
+          <t>빙글빙글</t>
         </is>
       </c>
     </row>
@@ -3216,17 +3216,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>흔들리는 꽃들 속에서 네 샴푸향이 느껴진거야</t>
+          <t>Bad Habits</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>주주 시크릿</t>
+          <t>Ed Sheeran</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>멜로가 체질 OST Part 3 (JTBC 금토 드라마)</t>
+          <t>=</t>
         </is>
       </c>
     </row>
@@ -3241,17 +3241,17 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>빙글빙글 (Prod. by R.Tee)</t>
+          <t>Rush Hour (Feat. j-hope of BTS)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>Crush</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>빙글빙글</t>
+          <t>Rush Hour</t>
         </is>
       </c>
     </row>
@@ -3266,17 +3266,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>딱 10CM만</t>
+          <t>안녕이라고 말하지마</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>이홍기 (FT아일랜드)</t>
+          <t>V.O.S</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>딱 10CM만</t>
+          <t>안녕이라고 말하지마</t>
         </is>
       </c>
     </row>
@@ -3291,17 +3291,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Blueming</t>
+          <t>FRIEND THE END</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>NCT DREAM</t>
+          <t>볼빨간사춘기</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Love poem</t>
+          <t>사랑.zip</t>
         </is>
       </c>
     </row>
@@ -3316,17 +3316,17 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>안녕이라고 말하지마</t>
+          <t>당신을 만나</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Ed Sheeran</t>
+          <t>김호중 &amp; 송가인</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>안녕이라고 말하지마</t>
+          <t>당신을 만나</t>
         </is>
       </c>
     </row>
@@ -3341,17 +3341,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>LOVE me</t>
+          <t>나의 목소리로</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>장범준</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>LOVE me</t>
+          <t>나의 목소리로</t>
         </is>
       </c>
     </row>
@@ -3366,17 +3366,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>만개 (Prod. 신지후)</t>
+          <t>INVU</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>헤이즈 (Heize)</t>
+          <t>태연 (TAEYEON)</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>우리家</t>
+          <t>INVU - The 3rd Album</t>
         </is>
       </c>
     </row>
@@ -3391,17 +3391,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Nostalgia</t>
+          <t>LOVE me</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>10CM &amp; BIG Naughty (서동현)</t>
+          <t>BE'O (비오)</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Nostalgia</t>
+          <t>LOVE me</t>
         </is>
       </c>
     </row>
@@ -3416,17 +3416,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>That That (Prod. &amp; Feat. SUGA of BTS)</t>
+          <t>자격지심 (Feat. ZICO)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>BE'O (비오)</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>싸다9</t>
+          <t>FIVE SENSES</t>
         </is>
       </c>
     </row>
@@ -3441,17 +3441,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Rush Hour (Feat. j-hope of BTS)</t>
+          <t>흔들리는 꽃들 속에서 네 샴푸향이 느껴진거야</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>V.O.S</t>
+          <t>장범준</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Rush Hour</t>
+          <t>멜로가 체질 OST Part 3 (JTBC 금토 드라마)</t>
         </is>
       </c>
     </row>
@@ -3466,17 +3466,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>인생은 뷰티풀</t>
+          <t>Bad</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>BE'O (비오)</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>인생은 뷰티풀 : 비타돌체</t>
+          <t>Under the Surface</t>
         </is>
       </c>
     </row>
@@ -3491,17 +3491,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>떠나보낼 준비해 둘걸 그랬어</t>
+          <t>That's Not How This Works (Feat. Dan ＋ Shay)</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>Charlie Puth</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>떠나보낼 준비해 둘걸 그랬어</t>
+          <t>That's Not How This Works</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>고백</t>
+          <t>Nostalgia</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3526,7 +3526,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>세 번째 '고백'</t>
+          <t>Nostalgia</t>
         </is>
       </c>
     </row>
@@ -3541,17 +3541,17 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>자격지심 (Feat. ZICO)</t>
+          <t>언제나 사랑해</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>싸이 (Psy)</t>
+          <t>케이시 (Kassy)</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>FIVE SENSES</t>
+          <t>조영수 리메이크 프로젝트 Part.2</t>
         </is>
       </c>
     </row>
@@ -3566,17 +3566,17 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>슬픈등</t>
+          <t>한강에서 (Feat. BIG Naughty)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Crush</t>
+          <t>폴킴</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>인생은 뷰티풀 : 비타돌체</t>
+          <t>한강에서</t>
         </is>
       </c>
     </row>
@@ -3591,17 +3591,17 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>이 새벽에 전화하는 건</t>
+          <t>Permission to Dance</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>방탄소년단</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>이 새벽에 전화하는 건</t>
+          <t>Butter / Permission to Dance</t>
         </is>
       </c>
     </row>
@@ -3616,17 +3616,17 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>10,000 Hours</t>
+          <t>That That (Prod. &amp; Feat. SUGA of BTS)</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>임한별</t>
+          <t>싸이 (Psy)</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Good Things</t>
+          <t>싸다9</t>
         </is>
       </c>
     </row>
@@ -3641,17 +3641,17 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>당신을 만나</t>
+          <t>Like Crazy</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>멜로망스 (MeloMance)</t>
+          <t>지민</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>당신을 만나</t>
+          <t>FACE</t>
         </is>
       </c>
     </row>
@@ -3666,17 +3666,17 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>FRIEND THE END</t>
+          <t>사랑하지 않아서 그랬어</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>BE'O (비오)</t>
+          <t>임한별</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>사랑.zip</t>
+          <t>사랑하지 않아서 그랬어</t>
         </is>
       </c>
     </row>
@@ -3691,17 +3691,17 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>사랑하지 않아서 그랬어</t>
+          <t>Blueming</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>사랑하지 않아서 그랬어</t>
+          <t>Love poem</t>
         </is>
       </c>
     </row>
@@ -3716,17 +3716,17 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>내 기쁨은 너가 벤틀리를 끄는 거야</t>
+          <t>Love story</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>황인욱</t>
+          <t>볼빨간사춘기</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>PROTOTYPE RESEARCH #0063</t>
+          <t>Seoul</t>
         </is>
       </c>
     </row>
@@ -3741,17 +3741,17 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>I Ain't Worried</t>
+          <t>At My Worst</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Dan ＋ Shay &amp; Justin Bieber</t>
+          <t>Pink Sweat$</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>I Ain't Worried (Music From The Motion Picture 'Top Gun : Maverick')</t>
+          <t>The Prelude</t>
         </is>
       </c>
     </row>
@@ -3766,17 +3766,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Like Crazy</t>
+          <t>Stronger (What Doesn't Kill You)</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>김호중 &amp; 송가인</t>
+          <t>Kelly Clarkson</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>FACE</t>
+          <t>Stronger (What Doesn't Kill You)</t>
         </is>
       </c>
     </row>
@@ -3791,17 +3791,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Weekend</t>
+          <t>오늘도 빛나는 너에게 (To You My Light) (Feat.이라온)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>볼빨간사춘기</t>
+          <t>마크툽 (Maktub)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Weekend</t>
+          <t>Red Moon : To You My Light</t>
         </is>
       </c>
     </row>
@@ -3816,17 +3816,17 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>오늘도 빛나는 너에게 (To You My Light) (Feat.이라온)</t>
+          <t>내 기쁨은 너가 벤틀리를 끄는 거야</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>임한별</t>
+          <t>김승민</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Red Moon : To You My Light</t>
+          <t>PROTOTYPE RESEARCH #0063</t>
         </is>
       </c>
     </row>
@@ -3841,17 +3841,17 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>한강에서 (Feat. BIG Naughty)</t>
+          <t>OHAYO MY NIGHT</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>김승민</t>
+          <t>디핵 (D-Hack) &amp; PATEKO</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>한강에서</t>
+          <t>OHAYO MY NIGHT</t>
         </is>
       </c>
     </row>
@@ -3866,17 +3866,17 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Next Level</t>
+          <t>떠나보낼 준비해 둘걸 그랬어</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>OneRepublic</t>
+          <t>임한별</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Next Level</t>
+          <t>떠나보낼 준비해 둘걸 그랬어</t>
         </is>
       </c>
     </row>
@@ -3891,17 +3891,17 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Bad</t>
+          <t>Forever Young</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>지민</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Under the Surface</t>
+          <t>SQUARE UP</t>
         </is>
       </c>
     </row>
@@ -3916,17 +3916,17 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Permission to Dance</t>
+          <t>Celebrity</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Butter / Permission to Dance</t>
+          <t>IU 5th Album 'LILAC'</t>
         </is>
       </c>
     </row>
@@ -3941,17 +3941,17 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Love story</t>
+          <t>이 새벽에 전화하는 건</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>마크툽 (Maktub)</t>
+          <t>황인욱</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Seoul</t>
+          <t>이 새벽에 전화하는 건</t>
         </is>
       </c>
     </row>
@@ -3966,17 +3966,17 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Stronger (What Doesn't Kill You)</t>
+          <t>나보다 더 사랑해요</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Stronger (What Doesn't Kill You)</t>
+          <t>나보다 더 사랑해요</t>
         </is>
       </c>
     </row>
@@ -3991,17 +3991,17 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Left and Right (Feat. Jung Kook of BTS)</t>
+          <t>strawberry moon</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Left and Right</t>
+          <t>strawberry moon</t>
         </is>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>DK (디셈버)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4041,17 +4041,17 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>나보다 더 사랑해요</t>
+          <t>고백</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>멜로망스 (MeloMance)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>나보다 더 사랑해요</t>
+          <t>세 번째 '고백'</t>
         </is>
       </c>
     </row>
@@ -4066,17 +4066,17 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>부동의 첫사랑</t>
+          <t>Left and Right (Feat. Jung Kook of BTS)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>볼빨간사춘기</t>
+          <t>Charlie Puth &amp; 정국 &amp; 방탄소년단</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>5.4 ［부동의 첫사랑］</t>
+          <t>Left and Right</t>
         </is>
       </c>
     </row>
@@ -4091,17 +4091,17 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Fall In Love Alone</t>
+          <t>부동의 첫사랑</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Kelly Clarkson</t>
+          <t>10CM</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Fall In Love Alone</t>
+          <t>5.4 ［부동의 첫사랑］</t>
         </is>
       </c>
     </row>
@@ -4116,17 +4116,17 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Feel My Rhythm</t>
+          <t>주마등</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Charlie Puth &amp; 정국 &amp; 방탄소년단</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>'The ReVe Festival 2022 - Feel My Rhythm'</t>
+          <t>PANORAMA</t>
         </is>
       </c>
     </row>
@@ -4141,17 +4141,17 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>주마등</t>
+          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>DK (디셈버)</t>
+          <t>AKMU (악뮤)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>PANORAMA</t>
+          <t>항해</t>
         </is>
       </c>
     </row>
@@ -4166,17 +4166,17 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>strawberry moon</t>
+          <t>F*ck My Life</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>세븐틴 (SEVENTEEN)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>strawberry moon</t>
+          <t>SEVENTEEN 10th Mini Album 'FML'</t>
         </is>
       </c>
     </row>
@@ -4191,17 +4191,17 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>OHAYO MY NIGHT</t>
+          <t>모든 순간을 기억할게</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>10CM</t>
+          <t>봉훈</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>OHAYO MY NIGHT</t>
+          <t>모든 순간을 기억할게</t>
         </is>
       </c>
     </row>
@@ -4216,17 +4216,17 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>어떻게 이별까지 사랑하겠어, 널 사랑하는 거지</t>
+          <t>다시 사랑한다면 (니글니글 버터플라이)</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>(여자)아이들</t>
+          <t>김필</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>항해</t>
+          <t>복면가왕 47회</t>
         </is>
       </c>
     </row>
@@ -4246,7 +4246,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>Agust D</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -4266,17 +4266,17 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>내 손을 잡아</t>
+          <t>빛이 나는 사람</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>최고의 사랑 OST Part.4 (MBC 수목드라마)</t>
+          <t>빛이 나는 사람</t>
         </is>
       </c>
     </row>
@@ -4291,17 +4291,17 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Made You Look</t>
+          <t>바라만 본다</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>IVE (아이브)</t>
+          <t>MSG워너비 (M.O.M)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Takin' It Back</t>
+          <t>MSG워너비 1집</t>
         </is>
       </c>
     </row>
@@ -4316,17 +4316,17 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>찰나가 영원이 될 때 (The Eternal Moment)</t>
+          <t>오래된 노래</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>LE SSERAFIM (르세라핌)</t>
+          <t>Standing Egg (스탠딩 에그)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Red Moon : Beyond The Light</t>
+          <t>오래된 노래</t>
         </is>
       </c>
     </row>
@@ -4341,17 +4341,17 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>노래방에서</t>
+          <t>12 : 45 (Stripped)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>AKMU (악뮤)</t>
+          <t>etham</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>장범준 3집</t>
+          <t>12 : 45 (Stripped)</t>
         </is>
       </c>
     </row>
@@ -4366,17 +4366,17 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>다시 사랑한다면 (니글니글 버터플라이)</t>
+          <t>Angel Pt. 1 (Feat. JVKE &amp; Muni Long) (FAST X Soundtrack)</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Agust D</t>
+          <t>지민</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>복면가왕 47회</t>
+          <t>Angel Pt. 1</t>
         </is>
       </c>
     </row>
@@ -4391,17 +4391,17 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Angel Pt. 1 (Feat. JVKE &amp; Muni Long) (FAST X Soundtrack)</t>
+          <t>Made You Look</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>Meghan Trainor</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Angel Pt. 1</t>
+          <t>Takin' It Back</t>
         </is>
       </c>
     </row>
@@ -4416,17 +4416,17 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>빛이 나는 사람</t>
+          <t>찰나가 영원이 될 때 (The Eternal Moment)</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Meghan Trainor</t>
+          <t>마크툽 (Maktub)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>빛이 나는 사람</t>
+          <t>Red Moon : Beyond The Light</t>
         </is>
       </c>
     </row>
@@ -4441,17 +4441,17 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Tiny Riot</t>
+          <t>만개 (Prod. 신지후)</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>마크툽 (Maktub)</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>The Sun's Gonna Rise</t>
+          <t>우리家</t>
         </is>
       </c>
     </row>
@@ -4466,17 +4466,17 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>All I Wanna Do (K) (Feat. Hoody &amp; Loco)</t>
+          <t>헤픈 우연</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>장범준</t>
+          <t>헤이즈 (Heize)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>EVERYTHING YOU WANTED</t>
+          <t>HAPPEN</t>
         </is>
       </c>
     </row>
@@ -4491,17 +4491,17 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>F*ck My Life</t>
+          <t>Yet To Come</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>김필</t>
+          <t>방탄소년단</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>SEVENTEEN 10th Mini Album 'FML'</t>
+          <t>Proof</t>
         </is>
       </c>
     </row>
@@ -4516,17 +4516,17 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>바라만 본다</t>
+          <t>달라달라</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>지민</t>
+          <t>ITZY (있지)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>MSG워너비 1집</t>
+          <t>IT'z Different</t>
         </is>
       </c>
     </row>
@@ -4541,7 +4541,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>첫눈처럼 너에게 가겠다</t>
+          <t>인생은 뷰티풀</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -4551,7 +4551,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>도깨비 OST Part 9 (tvN 금토드라마)</t>
+          <t>인생은 뷰티풀 : 비타돌체</t>
         </is>
       </c>
     </row>
@@ -4566,17 +4566,17 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>뜨거운 여름밤은 가고 남은 건 볼품없지만</t>
+          <t>parachute</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Sam Ryder</t>
+          <t>John K</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>MONKEY HOTEL</t>
+          <t>love ＋ everything else</t>
         </is>
       </c>
     </row>
@@ -4591,17 +4591,17 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>예뻤어</t>
+          <t>한 페이지가 될 수 있게</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>박재범</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Every DAY6 February</t>
+          <t>The Book of Us : Gravity</t>
         </is>
       </c>
     </row>
@@ -4616,17 +4616,17 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Yet To Come</t>
+          <t>예뻤어</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>세븐틴 (SEVENTEEN)</t>
+          <t>DAY6 (데이식스)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Proof</t>
+          <t>Every DAY6 February</t>
         </is>
       </c>
     </row>
@@ -4641,17 +4641,17 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>우주를 줄게</t>
+          <t>Tiny Riot</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>MSG워너비 (M.O.M)</t>
+          <t>Sam Ryder</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Full Album RED PLANET</t>
+          <t>The Sun's Gonna Rise</t>
         </is>
       </c>
     </row>
@@ -4666,17 +4666,17 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>한 페이지가 될 수 있게</t>
+          <t>Shape Of You</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>에일리 (Ailee)</t>
+          <t>Ed Sheeran</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>The Book of Us : Gravity</t>
+          <t>÷ (Deluxe)</t>
         </is>
       </c>
     </row>
@@ -4691,17 +4691,17 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>12 : 45 (Stripped)</t>
+          <t>내 손을 잡아</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>잔나비</t>
+          <t>아이유 (IU)</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>12 : 45 (Stripped)</t>
+          <t>최고의 사랑 OST Part.4 (MBC 수목드라마)</t>
         </is>
       </c>
     </row>
@@ -4716,17 +4716,17 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>우린 그렇게 사랑해서</t>
+          <t>Salty &amp; Sweet</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>우린 그렇게 사랑해서</t>
+          <t>MY WORLD - The 3rd Mini Album</t>
         </is>
       </c>
     </row>
@@ -4741,17 +4741,17 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>약속 (約束)</t>
+          <t>슬픈등</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>방탄소년단</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>PANORAMA</t>
+          <t>인생은 뷰티풀 : 비타돌체</t>
         </is>
       </c>
     </row>
@@ -4766,17 +4766,17 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>라일락</t>
+          <t>그리워하다</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>볼빨간사춘기</t>
+          <t>비투비</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>IU 5th Album 'LILAC'</t>
+          <t>Brother Act.</t>
         </is>
       </c>
     </row>
@@ -4791,17 +4791,17 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>그리움의 계절</t>
+          <t>팡파레</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>DAY6 (데이식스)</t>
+          <t>다비치</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>PANORAMA</t>
+          <t>Season Note</t>
         </is>
       </c>
     </row>
@@ -4816,17 +4816,17 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>있잖아</t>
+          <t>Memories</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>etham</t>
+          <t>Maroon 5</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>연애플레이리스트2 OST Part.2</t>
+          <t>Memories</t>
         </is>
       </c>
     </row>
@@ -4841,17 +4841,17 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>아로하</t>
+          <t>있잖아</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>강민경 (다비치) &amp; 잔나비 최정훈</t>
+          <t>폴킴</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>슬기로운 의사생활 OST Part 3 (tvN 목요드라마)</t>
+          <t>연애플레이리스트2 OST Part.2</t>
         </is>
       </c>
     </row>
@@ -4866,17 +4866,17 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>그리워하다</t>
+          <t>새벽에 걸려온 너의 전화는</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>한동근</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Brother Act.</t>
+          <t>미련을 말하는</t>
         </is>
       </c>
     </row>
@@ -4891,12 +4891,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Il Mare Calmo Della Sera</t>
+          <t>약속 (約束)</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>아이유 (IU)</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -4916,17 +4916,17 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Shape Of You</t>
+          <t>아로하</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>조정석</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>÷ (Deluxe)</t>
+          <t>슬기로운 의사생활 OST Part 3 (tvN 목요드라마)</t>
         </is>
       </c>
     </row>
@@ -4941,17 +4941,17 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>새벽에 걸려온 너의 전화는</t>
+          <t>우린 그렇게 사랑해서</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>폴킴</t>
+          <t>강민경 (다비치) &amp; 잔나비 최정훈</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>미련을 말하는</t>
+          <t>우린 그렇게 사랑해서</t>
         </is>
       </c>
     </row>
@@ -4966,17 +4966,17 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>오래된 노래</t>
+          <t>Il Mare Calmo Della Sera</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>조정석</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>오래된 노래</t>
+          <t>PANORAMA</t>
         </is>
       </c>
     </row>
@@ -4991,17 +4991,17 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>이 세상 끝까지</t>
+          <t>I Ain't Worried</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>비투비</t>
+          <t>OneRepublic</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>이 세상 끝까지</t>
+          <t>I Ain't Worried (Music From The Motion Picture 'Top Gun : Maverick')</t>
         </is>
       </c>
     </row>
@@ -5016,17 +5016,17 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>잘가요</t>
+          <t>풍등</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>김호중</t>
+          <t>이찬원</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>잘가요</t>
+          <t>ONE</t>
         </is>
       </c>
     </row>
@@ -5041,17 +5041,17 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Memories</t>
+          <t>Feel My Rhythm</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Ed Sheeran</t>
+          <t>Red Velvet (레드벨벳)</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Memories</t>
+          <t>'The ReVe Festival 2022 - Feel My Rhythm'</t>
         </is>
       </c>
     </row>
@@ -5066,17 +5066,17 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Salty &amp; Sweet</t>
+          <t>이 세상 끝까지</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>한동근</t>
+          <t>먼데이 키즈 (Monday Kiz) &amp; #안녕</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>MY WORLD - The 3rd Mini Album</t>
+          <t>이 세상 끝까지</t>
         </is>
       </c>
     </row>
@@ -5091,17 +5091,17 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>풍등</t>
+          <t>회전목마 (Feat. Zion.T &amp; 원슈타인) (Prod. by Slom)</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Standing Egg (스탠딩 에그)</t>
+          <t>sokodomo</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>ONE</t>
+          <t>쇼미더머니 10 Episode 2</t>
         </is>
       </c>
     </row>
@@ -5116,17 +5116,17 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>GHOST TOWN</t>
+          <t>도깨비불 (Illusion)</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>먼데이 키즈 (Monday Kiz) &amp; #안녕</t>
+          <t>aespa</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>GHOST TOWN</t>
+          <t>Girls - The 2nd Mini Album</t>
         </is>
       </c>
     </row>
@@ -5141,17 +5141,17 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>팡파레</t>
+          <t>그리움의 계절</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>주호</t>
+          <t>김호중</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Season Note</t>
+          <t>PANORAMA</t>
         </is>
       </c>
     </row>
@@ -5166,17 +5166,17 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>I (Feat. 버벌진트)</t>
+          <t>GHOST TOWN</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Maroon 5</t>
+          <t>Benson Boone</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>I - The 1st Mini Album</t>
+          <t>GHOST TOWN</t>
         </is>
       </c>
     </row>
@@ -5191,17 +5191,17 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>한여름밤의 꿀</t>
+          <t>BLUE MOON (Prod. by GroovyRoom)</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>효린 &amp; 창모 (CHANGMO)</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>한여름밤의 꿀</t>
+          <t>BLUE MOON</t>
         </is>
       </c>
     </row>
@@ -5216,17 +5216,17 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>도깨비불 (Illusion)</t>
+          <t>잘가요</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>이찬원</t>
+          <t>주호</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Girls - The 2nd Mini Album</t>
+          <t>잘가요</t>
         </is>
       </c>
     </row>
@@ -5241,17 +5241,17 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>그대를 알고</t>
+          <t>10,000 Hours</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Benson Boone</t>
+          <t>Dan ＋ Shay &amp; Justin Bieber</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>그대를 알고</t>
+          <t>Good Things</t>
         </is>
       </c>
     </row>
@@ -5266,7 +5266,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Fine</t>
+          <t>거북이</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -5276,7 +5276,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>My Voice - The 1st Album</t>
+          <t>MYSTIC BALLAD Part.1</t>
         </is>
       </c>
     </row>
@@ -5291,17 +5291,17 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>자니 (Feat. DYNAMICDUO)</t>
+          <t>HOT</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>세븐틴 (SEVENTEEN)</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>자니</t>
+          <t>SEVENTEEN 4th Album 'Face the Sun'</t>
         </is>
       </c>
     </row>
@@ -5316,17 +5316,17 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Touch My Body</t>
+          <t>D (half moon) (Feat. 개코)</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>San E (산이) &amp; 레이나</t>
+          <t>DEAN</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>TOUCH N MOVE</t>
+          <t>130 mood : TRBL</t>
         </is>
       </c>
     </row>
@@ -5341,17 +5341,17 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>하루 끝</t>
+          <t>사랑한다고 말해줘</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>aespa</t>
+          <t>탑현</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>스무 살의 봄</t>
+          <t>사랑한다고 말해줘</t>
         </is>
       </c>
     </row>
@@ -5366,7 +5366,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>SHAKE IT</t>
+          <t>그대를 알고</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>SHAKE IT</t>
+          <t>그대를 알고</t>
         </is>
       </c>
     </row>
@@ -5391,17 +5391,17 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>커피한잔할래요</t>
+          <t>Loving U (러빙유)</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>태연 (TAEYEON)</t>
+          <t>씨스타 (Sistar)</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>헤어질 걸 알아</t>
+          <t>Summer Special 'Loving U'</t>
         </is>
       </c>
     </row>
@@ -5416,17 +5416,17 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>제주도의 푸른 밤</t>
+          <t>Don't Know What To Do</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>프라이머리</t>
+          <t>BLACKPINK</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>밴드 고맙삼다</t>
+          <t>KILL THIS LOVE</t>
         </is>
       </c>
     </row>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>씨스타 (Sistar)</t>
+          <t>이창섭</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
